--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnc-Itga7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnc-Itga7.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.948174</v>
+        <v>3.575558</v>
       </c>
       <c r="H2">
-        <v>26.844522</v>
+        <v>10.726674</v>
       </c>
       <c r="I2">
-        <v>0.0695931738232498</v>
+        <v>0.025194653521236</v>
       </c>
       <c r="J2">
-        <v>0.0695931738232498</v>
+        <v>0.02519465352123599</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.636552333333333</v>
+        <v>3.691731666666667</v>
       </c>
       <c r="N2">
-        <v>16.909657</v>
+        <v>11.075195</v>
       </c>
       <c r="O2">
-        <v>0.09690140221006957</v>
+        <v>0.04949987503010053</v>
       </c>
       <c r="P2">
-        <v>0.09690140221006954</v>
+        <v>0.04949987503010053</v>
       </c>
       <c r="Q2">
-        <v>50.43685103877267</v>
+        <v>13.20000069460333</v>
       </c>
       <c r="R2">
-        <v>453.9316593489539</v>
+        <v>118.80000625143</v>
       </c>
       <c r="S2">
-        <v>0.006743676127722013</v>
+        <v>0.001247132200727864</v>
       </c>
       <c r="T2">
-        <v>0.006743676127722011</v>
+        <v>0.001247132200727864</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.948174</v>
+        <v>3.575558</v>
       </c>
       <c r="H3">
-        <v>26.844522</v>
+        <v>10.726674</v>
       </c>
       <c r="I3">
-        <v>0.0695931738232498</v>
+        <v>0.025194653521236</v>
       </c>
       <c r="J3">
-        <v>0.0695931738232498</v>
+        <v>0.02519465352123599</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>12.150408</v>
       </c>
       <c r="O3">
-        <v>0.06962835335006776</v>
+        <v>0.05430547069958891</v>
       </c>
       <c r="P3">
-        <v>0.06962835335006776</v>
+        <v>0.05430547069958892</v>
       </c>
       <c r="Q3">
-        <v>36.24132165166399</v>
+        <v>14.481496175888</v>
       </c>
       <c r="R3">
-        <v>326.171894864976</v>
+        <v>130.333465582992</v>
       </c>
       <c r="S3">
-        <v>0.004845658097717922</v>
+        <v>0.001368207518583776</v>
       </c>
       <c r="T3">
-        <v>0.004845658097717922</v>
+        <v>0.001368207518583776</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.948174</v>
+        <v>3.575558</v>
       </c>
       <c r="H4">
-        <v>26.844522</v>
+        <v>10.726674</v>
       </c>
       <c r="I4">
-        <v>0.0695931738232498</v>
+        <v>0.025194653521236</v>
       </c>
       <c r="J4">
-        <v>0.0695931738232498</v>
+        <v>0.02519465352123599</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>47.807061</v>
+        <v>66.27215200000001</v>
       </c>
       <c r="N4">
-        <v>143.421183</v>
+        <v>198.816456</v>
       </c>
       <c r="O4">
-        <v>0.8218802864734034</v>
+        <v>0.8885974220704449</v>
       </c>
       <c r="P4">
-        <v>0.8218802864734033</v>
+        <v>0.888597422070445</v>
       </c>
       <c r="Q4">
-        <v>427.785900256614</v>
+        <v>236.959923260816</v>
       </c>
       <c r="R4">
-        <v>3850.073102309525</v>
+        <v>2132.639309347344</v>
       </c>
       <c r="S4">
-        <v>0.0571972576384459</v>
+        <v>0.02238790416892836</v>
       </c>
       <c r="T4">
-        <v>0.05719725763844589</v>
+        <v>0.02238790416892836</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.948174</v>
+        <v>3.575558</v>
       </c>
       <c r="H5">
-        <v>26.844522</v>
+        <v>10.726674</v>
       </c>
       <c r="I5">
-        <v>0.0695931738232498</v>
+        <v>0.025194653521236</v>
       </c>
       <c r="J5">
-        <v>0.0695931738232498</v>
+        <v>0.02519465352123599</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6741636666666667</v>
+        <v>0.5666063333333334</v>
       </c>
       <c r="N5">
-        <v>2.022491</v>
+        <v>1.699819</v>
       </c>
       <c r="O5">
-        <v>0.01158995796645939</v>
+        <v>0.007597232199865597</v>
       </c>
       <c r="P5">
-        <v>0.01158995796645939</v>
+        <v>0.007597232199865597</v>
       </c>
       <c r="Q5">
-        <v>6.032533793811334</v>
+        <v>2.025933808000667</v>
       </c>
       <c r="R5">
-        <v>54.292804144302</v>
+        <v>18.233404272006</v>
       </c>
       <c r="S5">
-        <v>0.0008065819593639672</v>
+        <v>0.0001914096329959913</v>
       </c>
       <c r="T5">
-        <v>0.0008065819593639671</v>
+        <v>0.0001914096329959912</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>317.640397</v>
       </c>
       <c r="I6">
-        <v>0.8234679448457706</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="J6">
-        <v>0.8234679448457706</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.636552333333333</v>
+        <v>3.691731666666667</v>
       </c>
       <c r="N6">
-        <v>16.909657</v>
+        <v>11.075195</v>
       </c>
       <c r="O6">
-        <v>0.09690140221006957</v>
+        <v>0.04949987503010053</v>
       </c>
       <c r="P6">
-        <v>0.09690140221006954</v>
+        <v>0.04949987503010053</v>
       </c>
       <c r="Q6">
-        <v>596.7989069570922</v>
+        <v>390.8810374058239</v>
       </c>
       <c r="R6">
-        <v>5371.190162613829</v>
+        <v>3517.929336652415</v>
       </c>
       <c r="S6">
-        <v>0.0797951985305994</v>
+        <v>0.0369303259659688</v>
       </c>
       <c r="T6">
-        <v>0.07979519853059938</v>
+        <v>0.0369303259659688</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>317.640397</v>
       </c>
       <c r="I7">
-        <v>0.8234679448457706</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="J7">
-        <v>0.8234679448457706</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>12.150408</v>
       </c>
       <c r="O7">
-        <v>0.06962835335006776</v>
+        <v>0.05430547069958891</v>
       </c>
       <c r="P7">
-        <v>0.06962835335006776</v>
+        <v>0.05430547069958892</v>
       </c>
       <c r="Q7">
         <v>428.8289356479972</v>
@@ -883,10 +883,10 @@
         <v>3859.460420831976</v>
       </c>
       <c r="S7">
-        <v>0.05733671703617542</v>
+        <v>0.04051563228092282</v>
       </c>
       <c r="T7">
-        <v>0.05733671703617542</v>
+        <v>0.04051563228092282</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>317.640397</v>
       </c>
       <c r="I8">
-        <v>0.8234679448457706</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="J8">
-        <v>0.8234679448457706</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.807061</v>
+        <v>66.27215200000001</v>
       </c>
       <c r="N8">
-        <v>143.421183</v>
+        <v>198.816456</v>
       </c>
       <c r="O8">
-        <v>0.8218802864734034</v>
+        <v>0.8885974220704449</v>
       </c>
       <c r="P8">
-        <v>0.8218802864734033</v>
+        <v>0.888597422070445</v>
       </c>
       <c r="Q8">
-        <v>5061.817945147739</v>
+        <v>7016.904223774782</v>
       </c>
       <c r="R8">
-        <v>45556.36150632965</v>
+        <v>63152.13801397304</v>
       </c>
       <c r="S8">
-        <v>0.6767920704115067</v>
+        <v>0.6629550565456134</v>
       </c>
       <c r="T8">
-        <v>0.6767920704115066</v>
+        <v>0.6629550565456135</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>317.640397</v>
       </c>
       <c r="I9">
-        <v>0.8234679448457706</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="J9">
-        <v>0.8234679448457706</v>
+        <v>0.7460690747908298</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6741636666666667</v>
+        <v>0.5666063333333334</v>
       </c>
       <c r="N9">
-        <v>2.022491</v>
+        <v>1.699819</v>
       </c>
       <c r="O9">
-        <v>0.01158995796645939</v>
+        <v>0.007597232199865597</v>
       </c>
       <c r="P9">
-        <v>0.01158995796645939</v>
+        <v>0.007597232199865597</v>
       </c>
       <c r="Q9">
-        <v>71.3805382409919</v>
+        <v>59.99235355423812</v>
       </c>
       <c r="R9">
-        <v>642.4248441689271</v>
+        <v>539.9311819881431</v>
       </c>
       <c r="S9">
-        <v>0.009543958867489181</v>
+        <v>0.005668059998324827</v>
       </c>
       <c r="T9">
-        <v>0.009543958867489179</v>
+        <v>0.005668059998324827</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.635153</v>
+        <v>32.36130266666667</v>
       </c>
       <c r="H10">
-        <v>40.905459</v>
+        <v>97.08390800000001</v>
       </c>
       <c r="I10">
-        <v>0.1060454985380935</v>
+        <v>0.2280292497513723</v>
       </c>
       <c r="J10">
-        <v>0.1060454985380935</v>
+        <v>0.2280292497513723</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.636552333333333</v>
+        <v>3.691731666666667</v>
       </c>
       <c r="N10">
-        <v>16.909657</v>
+        <v>11.075195</v>
       </c>
       <c r="O10">
-        <v>0.09690140221006957</v>
+        <v>0.04949987503010053</v>
       </c>
       <c r="P10">
-        <v>0.09690140221006954</v>
+        <v>0.04949987503010053</v>
       </c>
       <c r="Q10">
-        <v>76.855253457507</v>
+        <v>119.4692458291178</v>
       </c>
       <c r="R10">
-        <v>691.697281117563</v>
+        <v>1075.22321246206</v>
       </c>
       <c r="S10">
-        <v>0.01027595750640714</v>
+        <v>0.01128741936590051</v>
       </c>
       <c r="T10">
-        <v>0.01027595750640714</v>
+        <v>0.01128741936590051</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.635153</v>
+        <v>32.36130266666667</v>
       </c>
       <c r="H11">
-        <v>40.905459</v>
+        <v>97.08390800000001</v>
       </c>
       <c r="I11">
-        <v>0.1060454985380935</v>
+        <v>0.2280292497513723</v>
       </c>
       <c r="J11">
-        <v>0.1060454985380935</v>
+        <v>0.2280292497513723</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>12.150408</v>
       </c>
       <c r="O11">
-        <v>0.06962835335006776</v>
+        <v>0.05430547069958891</v>
       </c>
       <c r="P11">
-        <v>0.06962835335006776</v>
+        <v>0.05430547069958892</v>
       </c>
       <c r="Q11">
-        <v>55.224224030808</v>
+        <v>131.0676769371626</v>
       </c>
       <c r="R11">
-        <v>497.018016277272</v>
+        <v>1179.609092434464</v>
       </c>
       <c r="S11">
-        <v>0.007383773443394466</v>
+        <v>0.01238323574102239</v>
       </c>
       <c r="T11">
-        <v>0.007383773443394465</v>
+        <v>0.01238323574102239</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.635153</v>
+        <v>32.36130266666667</v>
       </c>
       <c r="H12">
-        <v>40.905459</v>
+        <v>97.08390800000001</v>
       </c>
       <c r="I12">
-        <v>0.1060454985380935</v>
+        <v>0.2280292497513723</v>
       </c>
       <c r="J12">
-        <v>0.1060454985380935</v>
+        <v>0.2280292497513723</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>47.807061</v>
+        <v>66.27215200000001</v>
       </c>
       <c r="N12">
-        <v>143.421183</v>
+        <v>198.816456</v>
       </c>
       <c r="O12">
-        <v>0.8218802864734034</v>
+        <v>0.8885974220704449</v>
       </c>
       <c r="P12">
-        <v>0.8218802864734033</v>
+        <v>0.888597422070445</v>
       </c>
       <c r="Q12">
-        <v>651.856591215333</v>
+        <v>2144.653169243339</v>
       </c>
       <c r="R12">
-        <v>5866.709320937996</v>
+        <v>19301.87852319005</v>
       </c>
       <c r="S12">
-        <v>0.08715670471770315</v>
+        <v>0.202626203485727</v>
       </c>
       <c r="T12">
-        <v>0.08715670471770312</v>
+        <v>0.2026262034857271</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.635153</v>
+        <v>32.36130266666667</v>
       </c>
       <c r="H13">
-        <v>40.905459</v>
+        <v>97.08390800000001</v>
       </c>
       <c r="I13">
-        <v>0.1060454985380935</v>
+        <v>0.2280292497513723</v>
       </c>
       <c r="J13">
-        <v>0.1060454985380935</v>
+        <v>0.2280292497513723</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.6741636666666667</v>
+        <v>0.5666063333333334</v>
       </c>
       <c r="N13">
-        <v>2.022491</v>
+        <v>1.699819</v>
       </c>
       <c r="O13">
-        <v>0.01158995796645939</v>
+        <v>0.007597232199865597</v>
       </c>
       <c r="P13">
-        <v>0.01158995796645939</v>
+        <v>0.007597232199865597</v>
       </c>
       <c r="Q13">
-        <v>9.192324742041</v>
+        <v>18.33611904585023</v>
       </c>
       <c r="R13">
-        <v>82.730922678369</v>
+        <v>165.025071412652</v>
       </c>
       <c r="S13">
-        <v>0.001229062870588734</v>
+        <v>0.00173239115872232</v>
       </c>
       <c r="T13">
-        <v>0.001229062870588734</v>
+        <v>0.00173239115872232</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1148696666666667</v>
+        <v>0.1003386666666667</v>
       </c>
       <c r="H14">
-        <v>0.3446090000000001</v>
+        <v>0.301016</v>
       </c>
       <c r="I14">
-        <v>0.0008933827928862467</v>
+        <v>0.000707021936561918</v>
       </c>
       <c r="J14">
-        <v>0.0008933827928862467</v>
+        <v>0.0007070219365619179</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.636552333333333</v>
+        <v>3.691731666666667</v>
       </c>
       <c r="N14">
-        <v>16.909657</v>
+        <v>11.075195</v>
       </c>
       <c r="O14">
-        <v>0.09690140221006957</v>
+        <v>0.04949987503010053</v>
       </c>
       <c r="P14">
-        <v>0.09690140221006954</v>
+        <v>0.04949987503010053</v>
       </c>
       <c r="Q14">
-        <v>0.6474688876792224</v>
+        <v>0.3704234331244445</v>
       </c>
       <c r="R14">
-        <v>5.827219989113001</v>
+        <v>3.33381089812</v>
       </c>
       <c r="S14">
-        <v>8.657004534102548E-05</v>
+        <v>3.499749750335461E-05</v>
       </c>
       <c r="T14">
-        <v>8.657004534102546E-05</v>
+        <v>3.49974975033546E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1148696666666667</v>
+        <v>0.1003386666666667</v>
       </c>
       <c r="H15">
-        <v>0.3446090000000001</v>
+        <v>0.301016</v>
       </c>
       <c r="I15">
-        <v>0.0008933827928862467</v>
+        <v>0.000707021936561918</v>
       </c>
       <c r="J15">
-        <v>0.0008933827928862467</v>
+        <v>0.0007070219365619179</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>12.150408</v>
       </c>
       <c r="O15">
-        <v>0.06962835335006776</v>
+        <v>0.05430547069958891</v>
       </c>
       <c r="P15">
-        <v>0.06962835335006776</v>
+        <v>0.05430547069958892</v>
       </c>
       <c r="Q15">
-        <v>0.4652377722746667</v>
+        <v>0.4063852460586666</v>
       </c>
       <c r="R15">
-        <v>4.187139950472</v>
+        <v>3.657467214528</v>
       </c>
       <c r="S15">
-        <v>6.220477277995399E-05</v>
+        <v>3.839515905992985E-05</v>
       </c>
       <c r="T15">
-        <v>6.220477277995399E-05</v>
+        <v>3.839515905992985E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1148696666666667</v>
+        <v>0.1003386666666667</v>
       </c>
       <c r="H16">
-        <v>0.3446090000000001</v>
+        <v>0.301016</v>
       </c>
       <c r="I16">
-        <v>0.0008933827928862467</v>
+        <v>0.000707021936561918</v>
       </c>
       <c r="J16">
-        <v>0.0008933827928862467</v>
+        <v>0.0007070219365619179</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>47.807061</v>
+        <v>66.27215200000001</v>
       </c>
       <c r="N16">
-        <v>143.421183</v>
+        <v>198.816456</v>
       </c>
       <c r="O16">
-        <v>0.8218802864734034</v>
+        <v>0.8885974220704449</v>
       </c>
       <c r="P16">
-        <v>0.8218802864734033</v>
+        <v>0.888597422070445</v>
       </c>
       <c r="Q16">
-        <v>5.491581161383</v>
+        <v>6.649659368810668</v>
       </c>
       <c r="R16">
-        <v>49.42423045244701</v>
+        <v>59.846934319296</v>
       </c>
       <c r="S16">
-        <v>0.0007342537057477577</v>
+        <v>0.000628257870176174</v>
       </c>
       <c r="T16">
-        <v>0.0007342537057477576</v>
+        <v>0.000628257870176174</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.1148696666666667</v>
+        <v>0.1003386666666667</v>
       </c>
       <c r="H17">
-        <v>0.3446090000000001</v>
+        <v>0.301016</v>
       </c>
       <c r="I17">
-        <v>0.0008933827928862467</v>
+        <v>0.000707021936561918</v>
       </c>
       <c r="J17">
-        <v>0.0008933827928862467</v>
+        <v>0.0007070219365619179</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.6741636666666667</v>
+        <v>0.5666063333333334</v>
       </c>
       <c r="N17">
-        <v>2.022491</v>
+        <v>1.699819</v>
       </c>
       <c r="O17">
-        <v>0.01158995796645939</v>
+        <v>0.007597232199865597</v>
       </c>
       <c r="P17">
-        <v>0.01158995796645939</v>
+        <v>0.007597232199865597</v>
       </c>
       <c r="Q17">
-        <v>0.0774409556687778</v>
+        <v>0.05685252401155557</v>
       </c>
       <c r="R17">
-        <v>0.6969686010190002</v>
+        <v>0.5116727161040001</v>
       </c>
       <c r="S17">
-        <v>1.03542690175097E-05</v>
+        <v>5.371409822459535E-06</v>
       </c>
       <c r="T17">
-        <v>1.035426901750969E-05</v>
+        <v>5.371409822459534E-06</v>
       </c>
     </row>
   </sheetData>
